--- a/ssn/integrated/terms.xlsx
+++ b/ssn/integrated/terms.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8490" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8496" windowHeight="8052"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="100">
   <si>
     <t>FeatureOfInterest</t>
   </si>
@@ -309,6 +309,21 @@
   </si>
   <si>
     <t>Related Issues</t>
+  </si>
+  <si>
+    <t>sosa:FeatureOfInterest</t>
+  </si>
+  <si>
+    <t>sosa:hasProperty</t>
+  </si>
+  <si>
+    <t>sosa:isPropertyOf</t>
+  </si>
+  <si>
+    <t>ssn:Property</t>
+  </si>
+  <si>
+    <t>sosa:ObservableProperty</t>
   </si>
 </sst>
 </file>
@@ -665,18 +680,18 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -693,825 +708,722 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>99</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
       <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
         <v>43</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>23</v>
       </c>
       <c r="B42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
         <v>24</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>37</v>
       </c>
       <c r="B50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>88</v>
       </c>
       <c r="B52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>87</v>
       </c>
       <c r="B67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>63</v>
       </c>
       <c r="B74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>89</v>
       </c>
       <c r="B84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>90</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>34</v>
       </c>

--- a/ssn/integrated/terms.xlsx
+++ b/ssn/integrated/terms.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8490" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8496" windowHeight="8052"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
   <si>
     <t>FeatureOfInterest</t>
   </si>
@@ -309,6 +309,27 @@
   </si>
   <si>
     <t>Related Issues</t>
+  </si>
+  <si>
+    <t>sosa:FeatureOfInterest</t>
+  </si>
+  <si>
+    <t>sosa:hasProperty</t>
+  </si>
+  <si>
+    <t>sosa:isPropertyOf</t>
+  </si>
+  <si>
+    <t>ssn:Property</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>sosa:ObservableProperty</t>
+  </si>
+  <si>
+    <t>sosa:ActuatableProperty</t>
   </si>
 </sst>
 </file>
@@ -350,7 +371,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -662,21 +704,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -693,706 +735,758 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
       <c r="B28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>23</v>
       </c>
       <c r="B43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
       <c r="B51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>88</v>
       </c>
       <c r="B53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>87</v>
       </c>
       <c r="B68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>63</v>
       </c>
       <c r="B75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>89</v>
       </c>
       <c r="B85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C102">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="C1:C4 C6:C102">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="ssn:">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="ssn:">
       <formula>NOT(ISERROR(SEARCH("ssn:",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="sosa:">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="sosa:">
       <formula>NOT(ISERROR(SEARCH("sosa:",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="ssn:">
+      <formula>NOT(ISERROR(SEARCH("ssn:",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="sosa:">
+      <formula>NOT(ISERROR(SEARCH("sosa:",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
